--- a/natmiOut/OldD7/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Insr</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.37971870964167</v>
+        <v>8.543659333333332</v>
       </c>
       <c r="H2">
-        <v>8.37971870964167</v>
+        <v>25.630978</v>
       </c>
       <c r="I2">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="J2">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N2">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O2">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P2">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q2">
-        <v>105.656909743757</v>
+        <v>109.7033710729426</v>
       </c>
       <c r="R2">
-        <v>105.656909743757</v>
+        <v>987.3303396564839</v>
       </c>
       <c r="S2">
-        <v>0.009285125105033307</v>
+        <v>0.008651333268872619</v>
       </c>
       <c r="T2">
-        <v>0.009285125105033307</v>
+        <v>0.008651333268872616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.37971870964167</v>
+        <v>8.543659333333332</v>
       </c>
       <c r="H3">
-        <v>8.37971870964167</v>
+        <v>25.630978</v>
       </c>
       <c r="I3">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="J3">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N3">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O3">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P3">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q3">
-        <v>82.03143759200292</v>
+        <v>84.02025396791777</v>
       </c>
       <c r="R3">
-        <v>82.03143759200292</v>
+        <v>756.18228571126</v>
       </c>
       <c r="S3">
-        <v>0.007208919534318337</v>
+        <v>0.006625933289948405</v>
       </c>
       <c r="T3">
-        <v>0.007208919534318337</v>
+        <v>0.006625933289948403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.37971870964167</v>
+        <v>8.543659333333332</v>
       </c>
       <c r="H4">
-        <v>8.37971870964167</v>
+        <v>25.630978</v>
       </c>
       <c r="I4">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="J4">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N4">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O4">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P4">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q4">
-        <v>67.76208248317242</v>
+        <v>73.93912896291377</v>
       </c>
       <c r="R4">
-        <v>67.76208248317242</v>
+        <v>665.4521606662239</v>
       </c>
       <c r="S4">
-        <v>0.005954929164214163</v>
+        <v>0.005830924246101752</v>
       </c>
       <c r="T4">
-        <v>0.005954929164214163</v>
+        <v>0.00583092424610175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.37971870964167</v>
+        <v>8.543659333333332</v>
       </c>
       <c r="H5">
-        <v>8.37971870964167</v>
+        <v>25.630978</v>
       </c>
       <c r="I5">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="J5">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N5">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O5">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P5">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q5">
-        <v>41.85419791156093</v>
+        <v>55.647621383624</v>
       </c>
       <c r="R5">
-        <v>41.85419791156093</v>
+        <v>500.828592452616</v>
       </c>
       <c r="S5">
-        <v>0.00367814527911299</v>
+        <v>0.004388435045352157</v>
       </c>
       <c r="T5">
-        <v>0.00367814527911299</v>
+        <v>0.004388435045352156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>261.58652827955</v>
+        <v>272.3279166666667</v>
       </c>
       <c r="H6">
-        <v>261.58652827955</v>
+        <v>816.98375</v>
       </c>
       <c r="I6">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845317</v>
       </c>
       <c r="J6">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845315</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N6">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O6">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P6">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q6">
-        <v>3298.252025669369</v>
+        <v>3496.779228900833</v>
       </c>
       <c r="R6">
-        <v>3298.252025669369</v>
+        <v>31471.0130601075</v>
       </c>
       <c r="S6">
-        <v>0.2898502593019399</v>
+        <v>0.2757600079288161</v>
       </c>
       <c r="T6">
-        <v>0.2898502593019399</v>
+        <v>0.275760007928816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>261.58652827955</v>
+        <v>272.3279166666667</v>
       </c>
       <c r="H7">
-        <v>261.58652827955</v>
+        <v>816.98375</v>
       </c>
       <c r="I7">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845317</v>
       </c>
       <c r="J7">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N7">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O7">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P7">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q7">
-        <v>2560.744544418031</v>
+        <v>2678.133552401389</v>
       </c>
       <c r="R7">
-        <v>2560.744544418031</v>
+        <v>24103.2019716125</v>
       </c>
       <c r="S7">
-        <v>0.2250381306307121</v>
+        <v>0.211200673906079</v>
       </c>
       <c r="T7">
-        <v>0.2250381306307121</v>
+        <v>0.211200673906079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>261.58652827955</v>
+        <v>272.3279166666667</v>
       </c>
       <c r="H8">
-        <v>261.58652827955</v>
+        <v>816.98375</v>
       </c>
       <c r="I8">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845317</v>
       </c>
       <c r="J8">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N8">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O8">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P8">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q8">
-        <v>2115.303451101589</v>
+        <v>2356.799137818889</v>
       </c>
       <c r="R8">
-        <v>2115.303451101589</v>
+        <v>21211.19224037</v>
       </c>
       <c r="S8">
-        <v>0.1858927847333477</v>
+        <v>0.1858598745840339</v>
       </c>
       <c r="T8">
-        <v>0.1858927847333477</v>
+        <v>0.1858598745840338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>261.58652827955</v>
+        <v>272.3279166666667</v>
       </c>
       <c r="H9">
-        <v>261.58652827955</v>
+        <v>816.98375</v>
       </c>
       <c r="I9">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845317</v>
       </c>
       <c r="J9">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N9">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O9">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P9">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q9">
-        <v>1306.546759500784</v>
+        <v>1773.759955495</v>
       </c>
       <c r="R9">
-        <v>1306.546759500784</v>
+        <v>15963.839599455</v>
       </c>
       <c r="S9">
-        <v>0.1148192782371005</v>
+        <v>0.1398807380656027</v>
       </c>
       <c r="T9">
-        <v>0.1148192782371005</v>
+        <v>0.1398807380656027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>50.7625208142619</v>
+        <v>2.656328333333333</v>
       </c>
       <c r="H10">
-        <v>50.7625208142619</v>
+        <v>7.968985</v>
       </c>
       <c r="I10">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="J10">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N10">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O10">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P10">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q10">
-        <v>640.0466729112203</v>
+        <v>34.10812176303666</v>
       </c>
       <c r="R10">
-        <v>640.0466729112203</v>
+        <v>306.97309586733</v>
       </c>
       <c r="S10">
-        <v>0.05624727663769444</v>
+        <v>0.002689805478731513</v>
       </c>
       <c r="T10">
-        <v>0.05624727663769444</v>
+        <v>0.002689805478731512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>50.7625208142619</v>
+        <v>2.656328333333333</v>
       </c>
       <c r="H11">
-        <v>50.7625208142619</v>
+        <v>7.968985</v>
       </c>
       <c r="I11">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="J11">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N11">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O11">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P11">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q11">
-        <v>496.9286801234332</v>
+        <v>26.12292607666111</v>
       </c>
       <c r="R11">
-        <v>496.9286801234332</v>
+        <v>235.10633468995</v>
       </c>
       <c r="S11">
-        <v>0.04367007301666598</v>
+        <v>0.002060083817269848</v>
       </c>
       <c r="T11">
-        <v>0.04367007301666598</v>
+        <v>0.002060083817269848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>50.7625208142619</v>
+        <v>2.656328333333333</v>
       </c>
       <c r="H12">
-        <v>50.7625208142619</v>
+        <v>7.968985</v>
       </c>
       <c r="I12">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="J12">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N12">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O12">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P12">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q12">
-        <v>410.4880177555341</v>
+        <v>22.98858083443111</v>
       </c>
       <c r="R12">
-        <v>410.4880177555341</v>
+        <v>206.89722750988</v>
       </c>
       <c r="S12">
-        <v>0.03607367098111135</v>
+        <v>0.001812905767907927</v>
       </c>
       <c r="T12">
-        <v>0.03607367098111135</v>
+        <v>0.001812905767907926</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>2.656328333333333</v>
+      </c>
+      <c r="H13">
+        <v>7.968985</v>
+      </c>
+      <c r="I13">
+        <v>0.007927213271044639</v>
+      </c>
+      <c r="J13">
+        <v>0.007927213271044639</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.513324000000001</v>
+      </c>
+      <c r="N13">
+        <v>19.539972</v>
+      </c>
+      <c r="O13">
+        <v>0.1721182665942771</v>
+      </c>
+      <c r="P13">
+        <v>0.1721182665942771</v>
+      </c>
+      <c r="Q13">
+        <v>17.30152708538</v>
+      </c>
+      <c r="R13">
+        <v>155.71374376842</v>
+      </c>
+      <c r="S13">
+        <v>0.001364418207135353</v>
+      </c>
+      <c r="T13">
+        <v>0.001364418207135352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>51.56189866666667</v>
+      </c>
+      <c r="H14">
+        <v>154.685696</v>
+      </c>
+      <c r="I14">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="J14">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.840326</v>
+      </c>
+      <c r="N14">
+        <v>38.520978</v>
+      </c>
+      <c r="O14">
+        <v>0.3393128690704512</v>
+      </c>
+      <c r="P14">
+        <v>0.3393128690704511</v>
+      </c>
+      <c r="Q14">
+        <v>662.0715880589654</v>
+      </c>
+      <c r="R14">
+        <v>5958.644292530688</v>
+      </c>
+      <c r="S14">
+        <v>0.05221172239403103</v>
+      </c>
+      <c r="T14">
+        <v>0.052211722394031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>51.56189866666667</v>
+      </c>
+      <c r="H15">
+        <v>154.685696</v>
+      </c>
+      <c r="I15">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="J15">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.834223333333334</v>
+      </c>
+      <c r="N15">
+        <v>29.50267</v>
+      </c>
+      <c r="O15">
+        <v>0.2598749077175229</v>
+      </c>
+      <c r="P15">
+        <v>0.2598749077175228</v>
+      </c>
+      <c r="Q15">
+        <v>507.0712269787023</v>
+      </c>
+      <c r="R15">
+        <v>4563.641042808321</v>
+      </c>
+      <c r="S15">
+        <v>0.03998821670422561</v>
+      </c>
+      <c r="T15">
+        <v>0.03998821670422559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>50.7625208142619</v>
-      </c>
-      <c r="H13">
-        <v>50.7625208142619</v>
-      </c>
-      <c r="I13">
-        <v>0.158272428014221</v>
-      </c>
-      <c r="J13">
-        <v>0.158272428014221</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.99470201349404</v>
-      </c>
-      <c r="N13">
-        <v>4.99470201349404</v>
-      </c>
-      <c r="O13">
-        <v>0.1407788308949626</v>
-      </c>
-      <c r="P13">
-        <v>0.1407788308949626</v>
-      </c>
-      <c r="Q13">
-        <v>253.543664921027</v>
-      </c>
-      <c r="R13">
-        <v>253.543664921027</v>
-      </c>
-      <c r="S13">
-        <v>0.02228140737874916</v>
-      </c>
-      <c r="T13">
-        <v>0.02228140737874916</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>51.56189866666667</v>
+      </c>
+      <c r="H16">
+        <v>154.685696</v>
+      </c>
+      <c r="I16">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="J16">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.654269333333334</v>
+      </c>
+      <c r="N16">
+        <v>25.962808</v>
+      </c>
+      <c r="O16">
+        <v>0.228693956617749</v>
+      </c>
+      <c r="P16">
+        <v>0.2286939566177489</v>
+      </c>
+      <c r="Q16">
+        <v>446.2305583993743</v>
+      </c>
+      <c r="R16">
+        <v>4016.075025594368</v>
+      </c>
+      <c r="S16">
+        <v>0.03519025201970542</v>
+      </c>
+      <c r="T16">
+        <v>0.0351902520197054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>51.56189866666667</v>
+      </c>
+      <c r="H17">
+        <v>154.685696</v>
+      </c>
+      <c r="I17">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="J17">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.513324000000001</v>
+      </c>
+      <c r="N17">
+        <v>19.539972</v>
+      </c>
+      <c r="O17">
+        <v>0.1721182665942771</v>
+      </c>
+      <c r="P17">
+        <v>0.1721182665942771</v>
+      </c>
+      <c r="Q17">
+        <v>335.8393520711681</v>
+      </c>
+      <c r="R17">
+        <v>3022.554168640513</v>
+      </c>
+      <c r="S17">
+        <v>0.0264846752761869</v>
+      </c>
+      <c r="T17">
+        <v>0.02648467527618688</v>
       </c>
     </row>
   </sheetData>
